--- a/Planilha_Patrimonios.xlsx
+++ b/Planilha_Patrimonios.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\219030030213\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Documentos\PlanilhaExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{23FA8AA7-4E4F-417B-86EE-AAAFBF9DA3F6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD51D7A9-1629-4B7A-818B-4125B7EAB689}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{2615F9F9-3A47-40D7-B723-9DC83B108336}"/>
   </bookViews>
@@ -24,9 +24,17 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+  <si>
+    <t>Aqui é galo</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -34,13 +42,27 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -55,8 +77,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -371,14 +395,63 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7339AD0-B112-4A87-B5A1-ED5447E863B9}">
-  <dimension ref="A1"/>
+  <dimension ref="A2:L6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="1"/>
+      <c r="B2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>87</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Planilha_Patrimonios.xlsx
+++ b/Planilha_Patrimonios.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Documentos\PlanilhaExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD51D7A9-1629-4B7A-818B-4125B7EAB689}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D30342B3-0B95-45EA-876A-9EE708321BDB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{2615F9F9-3A47-40D7-B723-9DC83B108336}"/>
   </bookViews>
@@ -25,11 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
-  <si>
-    <t>Aqui é galo</t>
-  </si>
-</sst>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -51,18 +47,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -79,8 +69,8 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -395,19 +385,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7339AD0-B112-4A87-B5A1-ED5447E863B9}">
-  <dimension ref="A2:L6"/>
+  <dimension ref="A2:L4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
-      <c r="B2" s="2" t="s">
-        <v>0</v>
-      </c>
+      <c r="B2" s="2"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
@@ -421,9 +409,7 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
-      <c r="B3" s="1">
-        <v>1</v>
-      </c>
+      <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
@@ -436,19 +422,18 @@
       <c r="L3" s="1"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B5">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B6">
-        <v>87</v>
-      </c>
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/Planilha_Patrimonios.xlsx
+++ b/Planilha_Patrimonios.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Documentos\PlanilhaExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D30342B3-0B95-45EA-876A-9EE708321BDB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7674270E-2D64-423E-A3FA-6A55B5ECEEB9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{2615F9F9-3A47-40D7-B723-9DC83B108336}"/>
   </bookViews>
@@ -25,7 +25,20 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+  <si>
+    <t>Rafael</t>
+  </si>
+  <si>
+    <t>Matheus</t>
+  </si>
+  <si>
+    <t>Wagner</t>
+  </si>
+  <si>
+    <t>Chiquinho</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -385,16 +398,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7339AD0-B112-4A87-B5A1-ED5447E863B9}">
-  <dimension ref="A2:L4"/>
+  <dimension ref="A2:L5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="B2" s="2"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -408,7 +423,9 @@
       <c r="L2" s="1"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -422,7 +439,9 @@
       <c r="L3" s="1"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -435,6 +454,11 @@
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
     </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/Planilha_Patrimonios.xlsx
+++ b/Planilha_Patrimonios.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Documentos\PlanilhaExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F9094FF-FB13-4105-9561-01AE2D539C91}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7EC3A5E-3426-4C97-AACB-B540504B9DE5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{2615F9F9-3A47-40D7-B723-9DC83B108336}"/>
   </bookViews>
@@ -93,7 +93,7 @@
     <numFmt numFmtId="164" formatCode="d/m/yy;@"/>
     <numFmt numFmtId="165" formatCode="dd/mm/yy;@"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -113,6 +113,14 @@
       <b/>
       <sz val="14"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -239,7 +247,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -304,6 +312,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -345,7 +354,7 @@
         <xdr:cNvPr id="2" name="Retângulo 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{314DF2F7-B2F2-4E08-85FF-462FA682EB17}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -412,290 +421,6 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="Retângulo: Cantos Arredondados 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A6F72C0F-9E0A-407B-A70E-709D8EB3B94E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="733425" y="2752725"/>
-          <a:ext cx="4219575" cy="276225"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst>
-            <a:gd name="adj" fmla="val 50000"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="38100">
-          <a:solidFill>
-            <a:schemeClr val="accent6">
-              <a:lumMod val="75000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-        <a:effectLst>
-          <a:outerShdw blurRad="50800" dist="38100" algn="l" rotWithShape="0">
-            <a:prstClr val="black">
-              <a:alpha val="40000"/>
-            </a:prstClr>
-          </a:outerShdw>
-        </a:effectLst>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent6">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent6"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent6"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="pt-BR" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>76199</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>304797</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="Retângulo: Cantos Arredondados 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E45736FE-FEE3-4B3A-B668-B6870D610EDA}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="5400000">
-          <a:off x="761998" y="2676526"/>
-          <a:ext cx="257175" cy="409573"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst>
-            <a:gd name="adj" fmla="val 50000"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent6">
-            <a:lumMod val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln w="38100">
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst>
-          <a:outerShdw blurRad="50800" dist="38100" algn="l" rotWithShape="0">
-            <a:prstClr val="black">
-              <a:alpha val="40000"/>
-            </a:prstClr>
-          </a:outerShdw>
-        </a:effectLst>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent6">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent6"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent6"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="pt-BR" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>142876</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>76201</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="Gráfico 6" descr="Pesquisar">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7EF4D5F7-8E02-4819-9E4B-6E29DB70BEAB}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="752476" y="2762251"/>
-          <a:ext cx="219074" cy="219074"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>447676</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>1838326</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="Retângulo: Cantos Arredondados 7">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3DAD6246-F374-44CA-BEAD-25D35A67A256}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5314951" y="2752725"/>
-          <a:ext cx="3295650" cy="276225"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst>
-            <a:gd name="adj" fmla="val 50000"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="38100">
-          <a:solidFill>
-            <a:schemeClr val="accent6">
-              <a:lumMod val="75000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-        <a:effectLst>
-          <a:outerShdw blurRad="50800" dist="38100" algn="l" rotWithShape="0">
-            <a:prstClr val="black">
-              <a:alpha val="40000"/>
-            </a:prstClr>
-          </a:outerShdw>
-        </a:effectLst>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent6">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent6"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent6"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="pt-BR" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
@@ -703,7 +428,7 @@
           <xdr:col>2</xdr:col>
           <xdr:colOff>342900</xdr:colOff>
           <xdr:row>14</xdr:row>
-          <xdr:rowOff>85724</xdr:rowOff>
+          <xdr:rowOff>85725</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
@@ -719,7 +444,7 @@
                   <a14:compatExt spid="_x0000_s1027"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3C4B96A9-158C-40EC-A677-9AF539EE9592}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1058,7 +783,7 @@
   <dimension ref="A1:Z22"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1253,7 +978,10 @@
       <c r="G13" s="9"/>
       <c r="H13" s="10"/>
     </row>
-    <row r="22" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C18" s="30"/>
+    </row>
+    <row r="22" spans="3:7" x14ac:dyDescent="0.25">
       <c r="G22" s="5"/>
     </row>
   </sheetData>
@@ -1305,7 +1033,7 @@
   <dimension ref="B2:F1003"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
